--- a/results/mp/deberta/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/126/stop-words-topk-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="138">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,346 +52,382 @@
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
     <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>available</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>hands</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>latest</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>gloves</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>businesses</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>dona</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>masks</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>keep</t>
+  </si>
+  <si>
+    <t>workers</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>working</t>
+  </si>
+  <si>
+    <t>know</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>qu</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>food</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>corona</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>service</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>businesses</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
-    <t>gloves</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>hands</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>employees</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>items</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>masks</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>take</t>
-  </si>
-  <si>
-    <t>know</t>
-  </si>
-  <si>
-    <t>workers</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>keep</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>people</t>
+    <t>oil</t>
   </si>
 </sst>
 </file>
@@ -749,7 +785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q112"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,10 +793,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -818,13 +854,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.5862068965517241</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="C3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -836,28 +872,28 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>0.9482758620689655</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M3">
         <v>56</v>
       </c>
       <c r="N3">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -868,13 +904,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.565068493150685</v>
+        <v>0.547945205479452</v>
       </c>
       <c r="C4">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D4">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -886,31 +922,31 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.8717948717948718</v>
+        <v>0.8916666666666667</v>
       </c>
       <c r="L4">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="M4">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N4">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -918,49 +954,49 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.4722222222222222</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C5">
+        <v>19</v>
+      </c>
+      <c r="D5">
+        <v>19</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>17</v>
       </c>
-      <c r="D5">
+      <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>19</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K5">
-        <v>0.8666666666666667</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N5">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -989,28 +1025,28 @@
         <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K6">
-        <v>0.84251968503937</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L6">
-        <v>107</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="N6">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1018,49 +1054,49 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2777777777777778</v>
+        <v>0.2549019607843137</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K7">
-        <v>0.7981651376146789</v>
+        <v>0.84375</v>
       </c>
       <c r="L7">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="M7">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="N7">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1068,313 +1104,193 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.2549019607843137</v>
+        <v>0.2325581395348837</v>
       </c>
       <c r="C8">
+        <v>120</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>396</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8392857142857143</v>
+      </c>
+      <c r="L8">
+        <v>94</v>
+      </c>
+      <c r="M8">
+        <v>94</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9">
+        <v>0.7926829268292683</v>
+      </c>
+      <c r="L9">
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L10">
+        <v>45</v>
+      </c>
+      <c r="M10">
+        <v>45</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
         <v>13</v>
       </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>38</v>
-      </c>
-      <c r="J8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11">
+        <v>0.7692307692307693</v>
+      </c>
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11">
+        <v>20</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K12">
+        <v>0.75</v>
+      </c>
+      <c r="L12">
+        <v>27</v>
+      </c>
+      <c r="M12">
+        <v>27</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K8">
-        <v>0.7875</v>
-      </c>
-      <c r="L8">
-        <v>63</v>
-      </c>
-      <c r="M8">
-        <v>65</v>
-      </c>
-      <c r="N8">
-        <v>0.97</v>
-      </c>
-      <c r="O8">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P8" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.2213592233009709</v>
-      </c>
-      <c r="C9">
-        <v>114</v>
-      </c>
-      <c r="D9">
-        <v>115</v>
-      </c>
-      <c r="E9">
-        <v>0.01</v>
-      </c>
-      <c r="F9">
-        <v>0.99</v>
-      </c>
-      <c r="G9" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>401</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9">
-        <v>0.7619047619047619</v>
-      </c>
-      <c r="L9">
-        <v>48</v>
-      </c>
-      <c r="M9">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.01518438177874186</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>60</v>
-      </c>
-      <c r="E10">
-        <v>0.77</v>
-      </c>
-      <c r="F10">
-        <v>0.23</v>
-      </c>
-      <c r="G10" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>908</v>
-      </c>
-      <c r="J10" s="1" t="s">
+      <c r="K13">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L13">
+        <v>79</v>
+      </c>
+      <c r="M13">
+        <v>79</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
         <v>27</v>
-      </c>
-      <c r="K10">
-        <v>0.7515923566878981</v>
-      </c>
-      <c r="L10">
-        <v>118</v>
-      </c>
-      <c r="M10">
-        <v>121</v>
-      </c>
-      <c r="N10">
-        <v>0.98</v>
-      </c>
-      <c r="O10">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P10" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.01510912143256855</v>
-      </c>
-      <c r="C11">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>383</v>
-      </c>
-      <c r="E11">
-        <v>0.93</v>
-      </c>
-      <c r="F11">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="G11" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1760</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11">
-        <v>0.71</v>
-      </c>
-      <c r="L11">
-        <v>71</v>
-      </c>
-      <c r="M11">
-        <v>77</v>
-      </c>
-      <c r="N11">
-        <v>0.92</v>
-      </c>
-      <c r="O11">
-        <v>0.07999999999999996</v>
-      </c>
-      <c r="P11" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.007739938080495356</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>543</v>
-      </c>
-      <c r="E12">
-        <v>0.96</v>
-      </c>
-      <c r="F12">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G12" t="b">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>2564</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K12">
-        <v>0.7017543859649122</v>
-      </c>
-      <c r="L12">
-        <v>40</v>
-      </c>
-      <c r="M12">
-        <v>41</v>
-      </c>
-      <c r="N12">
-        <v>0.98</v>
-      </c>
-      <c r="O12">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P12" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.005374417771408097</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-      <c r="D13">
-        <v>425</v>
-      </c>
-      <c r="E13">
-        <v>0.96</v>
-      </c>
-      <c r="F13">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>2776</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13">
-        <v>0.6944444444444444</v>
-      </c>
-      <c r="L13">
-        <v>25</v>
-      </c>
-      <c r="M13">
-        <v>25</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.6901408450704225</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L14">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="M14">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1386,307 +1302,307 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.6782608695652174</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L15">
-        <v>156</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>165</v>
+        <v>46</v>
       </c>
       <c r="N15">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>74</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.625</v>
+        <v>0.725</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="M16">
-        <v>21</v>
+        <v>116</v>
       </c>
       <c r="N16">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L17">
         <v>34</v>
       </c>
-      <c r="K17">
-        <v>0.6111111111111112</v>
-      </c>
-      <c r="L17">
-        <v>55</v>
-      </c>
       <c r="M17">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="N17">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K18">
-        <v>0.5714285714285714</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L18">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N18">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.5683890577507599</v>
+        <v>0.6652719665271967</v>
       </c>
       <c r="L19">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="M19">
-        <v>198</v>
+        <v>159</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>142</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K20">
-        <v>0.5652173913043478</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L20">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N20">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O20">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.5144356955380578</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L21">
-        <v>196</v>
+        <v>17</v>
       </c>
       <c r="M21">
-        <v>198</v>
+        <v>17</v>
       </c>
       <c r="N21">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O21">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>185</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.5068965517241379</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="L22">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="N22">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>143</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.5</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>202</v>
       </c>
       <c r="M23">
-        <v>33</v>
+        <v>202</v>
       </c>
       <c r="N23">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>32</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.4927536231884058</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L24">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K25">
-        <v>0.4523809523809524</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M25">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N25">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.4468085106382979</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L26">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1698,47 +1614,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.4204545454545455</v>
+        <v>0.5581395348837209</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="N27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4117647058823529</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1750,21 +1666,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.40625</v>
+        <v>0.5274151436031331</v>
       </c>
       <c r="L29">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="M29">
-        <v>26</v>
+        <v>202</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1776,21 +1692,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>38</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4</v>
+        <v>0.4915254237288136</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>145</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1802,47 +1718,47 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>21</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.3818181818181818</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L31">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M31">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N31">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.38</v>
+        <v>0.4680851063829787</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1854,21 +1770,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K33">
-        <v>0.3333333333333333</v>
+        <v>0.421875</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1880,47 +1796,47 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K34">
-        <v>0.3286384976525822</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L34">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="N34">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O34">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P34" t="b">
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>143</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.325</v>
+        <v>0.3728813559322034</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1932,73 +1848,73 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.2916666666666667</v>
+        <v>0.3505154639175257</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N36">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O36">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.2784810126582278</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L37">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="M37">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>114</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.2765957446808511</v>
+        <v>0.34</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2010,125 +1926,125 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.2749391727493917</v>
+        <v>0.3395348837209302</v>
       </c>
       <c r="L39">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="M39">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="N39">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>298</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.2641509433962264</v>
+        <v>0.3287671232876712</v>
       </c>
       <c r="L40">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M40">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N40">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>78</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K41">
-        <v>0.2546583850931677</v>
+        <v>0.325</v>
       </c>
       <c r="L41">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="M41">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>120</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K42">
-        <v>0.2467532467532468</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="L42">
         <v>19</v>
       </c>
       <c r="M42">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K43">
-        <v>0.2459016393442623</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2140,21 +2056,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="K44">
-        <v>0.2434782608695652</v>
+        <v>0.3086124401913876</v>
       </c>
       <c r="L44">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="M44">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2166,125 +2082,125 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>87</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="K45">
-        <v>0.2394366197183098</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L45">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="M45">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="K46">
-        <v>0.2356687898089172</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L46">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M46">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N46">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>120</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K47">
+        <v>0.2967032967032967</v>
+      </c>
+      <c r="L47">
+        <v>27</v>
+      </c>
+      <c r="M47">
+        <v>27</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>64</v>
-      </c>
-      <c r="K47">
-        <v>0.2337662337662338</v>
-      </c>
-      <c r="L47">
-        <v>18</v>
-      </c>
-      <c r="M47">
-        <v>20</v>
-      </c>
-      <c r="N47">
-        <v>0.9</v>
-      </c>
-      <c r="O47">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P47" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q47">
-        <v>59</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K48">
-        <v>0.2289719626168224</v>
+        <v>0.2955974842767295</v>
       </c>
       <c r="L48">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>165</v>
+        <v>112</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K49">
-        <v>0.2277227722772277</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="M49">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2296,21 +2212,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>78</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="K50">
-        <v>0.2222222222222222</v>
+        <v>0.2830188679245283</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2322,15 +2238,15 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>49</v>
+        <v>114</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="K51">
-        <v>0.2203389830508475</v>
+        <v>0.2765957446808511</v>
       </c>
       <c r="L51">
         <v>13</v>
@@ -2348,47 +2264,47 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K52">
-        <v>0.2170542635658915</v>
+        <v>0.2700729927007299</v>
       </c>
       <c r="L52">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M52">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="N52">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="K53">
-        <v>0.2166666666666667</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2400,21 +2316,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="K54">
-        <v>0.2142857142857143</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="L54">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M54">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2426,21 +2342,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>77</v>
+        <v>44</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="K55">
-        <v>0.208955223880597</v>
+        <v>0.2638036809815951</v>
       </c>
       <c r="L55">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="M55">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2452,47 +2368,47 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>53</v>
+        <v>120</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K56">
-        <v>0.2073170731707317</v>
+        <v>0.25</v>
       </c>
       <c r="L56">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M56">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K57">
-        <v>0.205761316872428</v>
+        <v>0.25</v>
       </c>
       <c r="L57">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="M57">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2504,47 +2420,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>386</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K58">
-        <v>0.2043795620437956</v>
+        <v>0.2461538461538462</v>
       </c>
       <c r="L58">
-        <v>84</v>
+        <v>32</v>
       </c>
       <c r="M58">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="N58">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O58">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P58" t="b">
         <v>1</v>
       </c>
       <c r="Q58">
-        <v>327</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="K59">
-        <v>0.2014925373134328</v>
+        <v>0.2377622377622378</v>
       </c>
       <c r="L59">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2556,21 +2472,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.1973684210526316</v>
+        <v>0.2368421052631579</v>
       </c>
       <c r="L60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M60">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2582,47 +2498,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K61">
-        <v>0.1951219512195122</v>
+        <v>0.2317073170731707</v>
       </c>
       <c r="L61">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O61">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>132</v>
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="K62">
-        <v>0.1944444444444444</v>
+        <v>0.2283653846153846</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2634,333 +2550,333 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>58</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K63">
-        <v>0.1940298507462687</v>
+        <v>0.2244897959183673</v>
       </c>
       <c r="L63">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M63">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="N63">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K64">
-        <v>0.1894736842105263</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="L64">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M64">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N64">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K65">
-        <v>0.1805555555555556</v>
+        <v>0.2236286919831224</v>
       </c>
       <c r="L65">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M65">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="N65">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>59</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K66">
-        <v>0.1794871794871795</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="L66">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M66">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N66">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O66">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K67">
-        <v>0.1780821917808219</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L67">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="N67">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>120</v>
+        <v>56</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K68">
-        <v>0.1755725190839695</v>
+        <v>0.2180451127819549</v>
       </c>
       <c r="L68">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M68">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K69">
-        <v>0.1711711711711712</v>
+        <v>0.213953488372093</v>
       </c>
       <c r="L69">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="M69">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O69">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>92</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="K70">
-        <v>0.1694201490119857</v>
+        <v>0.2101449275362319</v>
       </c>
       <c r="L70">
-        <v>523</v>
+        <v>29</v>
       </c>
       <c r="M70">
-        <v>543</v>
+        <v>29</v>
       </c>
       <c r="N70">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2564</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K71">
-        <v>0.1693548387096774</v>
+        <v>0.208955223880597</v>
       </c>
       <c r="L71">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="M71">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="N71">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="O71">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="P71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>103</v>
+        <v>53</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K72">
-        <v>0.1686046511627907</v>
+        <v>0.2079207920792079</v>
       </c>
       <c r="L72">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="M72">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N72">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="O72">
-        <v>0.07999999999999996</v>
+        <v>0</v>
       </c>
       <c r="P72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>286</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73">
+        <v>0.2051282051282051</v>
+      </c>
+      <c r="L73">
         <v>16</v>
       </c>
-      <c r="K73">
-        <v>0.168241965973535</v>
-      </c>
-      <c r="L73">
-        <v>356</v>
-      </c>
       <c r="M73">
-        <v>383</v>
+        <v>16</v>
       </c>
       <c r="N73">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O73">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q73">
-        <v>1760</v>
+        <v>62</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K74">
-        <v>0.1659142212189616</v>
+        <v>0.2043478260869565</v>
       </c>
       <c r="L74">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="M74">
-        <v>155</v>
+        <v>47</v>
       </c>
       <c r="N74">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O74">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q74">
-        <v>739</v>
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K75">
-        <v>0.1648351648351648</v>
+        <v>0.2025316455696203</v>
       </c>
       <c r="L75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M75">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2972,67 +2888,67 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>76</v>
+        <v>63</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K76">
-        <v>0.1647058823529412</v>
+        <v>0.2005730659025788</v>
       </c>
       <c r="L76">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="M76">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="N76">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>71</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K77">
-        <v>0.1631284916201117</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L77">
-        <v>146</v>
+        <v>16</v>
       </c>
       <c r="M77">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>749</v>
+        <v>66</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K78">
-        <v>0.1608391608391608</v>
+        <v>0.1932773109243698</v>
       </c>
       <c r="L78">
         <v>23</v>
@@ -3050,21 +2966,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>120</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="K79">
-        <v>0.1592920353982301</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L79">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M79">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3076,99 +2992,99 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K80">
-        <v>0.1584699453551913</v>
+        <v>0.187010078387458</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="M80">
-        <v>31</v>
+        <v>168</v>
       </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="O80">
-        <v>0.06000000000000005</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P80" t="b">
         <v>1</v>
       </c>
       <c r="Q80">
-        <v>154</v>
+        <v>726</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K81">
-        <v>0.1574468085106383</v>
+        <v>0.1855670103092784</v>
       </c>
       <c r="L81">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="M81">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="N81">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K82">
-        <v>0.1551724137931035</v>
+        <v>0.1836734693877551</v>
       </c>
       <c r="L82">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="M82">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="N82">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>539</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K83">
-        <v>0.1551724137931035</v>
+        <v>0.1834862385321101</v>
       </c>
       <c r="L83">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M83">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3180,21 +3096,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="K84">
-        <v>0.1550387596899225</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L84">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="M84">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3206,203 +3122,203 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>109</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="K85">
-        <v>0.1546511627906977</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L85">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="M85">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="N85">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O85">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q85">
-        <v>727</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K86">
-        <v>0.1538461538461539</v>
+        <v>0.1798002219755827</v>
       </c>
       <c r="L86">
-        <v>14</v>
+        <v>162</v>
       </c>
       <c r="M86">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N86">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>77</v>
+        <v>739</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K87">
-        <v>0.1533742331288344</v>
+        <v>0.1789719626168224</v>
       </c>
       <c r="L87">
-        <v>25</v>
+        <v>383</v>
       </c>
       <c r="M87">
-        <v>26</v>
+        <v>386</v>
       </c>
       <c r="N87">
-        <v>0.96</v>
+        <v>0.99</v>
       </c>
       <c r="O87">
-        <v>0.04000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P87" t="b">
         <v>1</v>
       </c>
       <c r="Q87">
-        <v>138</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K88">
-        <v>0.1515151515151515</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="L88">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M88">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="N88">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O88">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
-        <v>224</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K89">
-        <v>0.1507692307692308</v>
+        <v>0.1761674718196457</v>
       </c>
       <c r="L89">
-        <v>49</v>
+        <v>547</v>
       </c>
       <c r="M89">
-        <v>51</v>
+        <v>549</v>
       </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O89">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P89" t="b">
         <v>1</v>
       </c>
       <c r="Q89">
-        <v>276</v>
+        <v>2558</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K90">
-        <v>0.1484098939929329</v>
+        <v>0.1756756756756757</v>
       </c>
       <c r="L90">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="M90">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="N90">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O90">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
-        <v>482</v>
+        <v>61</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K91">
-        <v>0.1481481481481481</v>
+        <v>0.1723076923076923</v>
       </c>
       <c r="L91">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="M91">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="N91">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O91">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q91">
-        <v>92</v>
+        <v>538</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="K92">
-        <v>0.1442307692307692</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="L92">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M92">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3414,203 +3330,203 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>89</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="K93">
-        <v>0.1397379912663755</v>
+        <v>0.1675675675675676</v>
       </c>
       <c r="L93">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M93">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N93">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O93">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q93">
-        <v>197</v>
+        <v>154</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K94">
-        <v>0.1296296296296296</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L94">
-        <v>14</v>
+        <v>81</v>
       </c>
       <c r="M94">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N94">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O94">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q94">
-        <v>94</v>
+        <v>405</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="K95">
+        <v>0.1651376146788991</v>
+      </c>
+      <c r="L95">
         <v>18</v>
       </c>
-      <c r="K95">
-        <v>0.1286880100439423</v>
-      </c>
-      <c r="L95">
-        <v>410</v>
-      </c>
       <c r="M95">
-        <v>425</v>
+        <v>18</v>
       </c>
       <c r="N95">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O95">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P95" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q95">
-        <v>2776</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K96">
-        <v>0.1240875912408759</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M96">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N96">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>120</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K97">
-        <v>0.119047619047619</v>
+        <v>0.1605351170568562</v>
       </c>
       <c r="L97">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="M97">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="N97">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="O97">
-        <v>0.12</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P97" t="b">
         <v>1</v>
       </c>
       <c r="Q97">
-        <v>111</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K98">
-        <v>0.1176470588235294</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="L98">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M98">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N98">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O98">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q98">
-        <v>120</v>
+        <v>74</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K99">
-        <v>0.1137123745819398</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L99">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="M99">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="N99">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K100">
-        <v>0.1136363636363636</v>
+        <v>0.149812734082397</v>
       </c>
       <c r="L100">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M100">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3622,151 +3538,151 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>273</v>
+        <v>227</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K101">
-        <v>0.1129032258064516</v>
+        <v>0.1484098939929329</v>
       </c>
       <c r="L101">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="M101">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O101">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q101">
-        <v>110</v>
+        <v>482</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K102">
-        <v>0.1111111111111111</v>
+        <v>0.146551724137931</v>
       </c>
       <c r="L102">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M102">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N102">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>152</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K103">
-        <v>0.1076388888888889</v>
+        <v>0.1415929203539823</v>
       </c>
       <c r="L103">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="M103">
-        <v>133</v>
+        <v>16</v>
       </c>
       <c r="N103">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>1028</v>
+        <v>97</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K104">
+        <v>0.1386861313868613</v>
+      </c>
+      <c r="L104">
+        <v>19</v>
+      </c>
+      <c r="M104">
+        <v>19</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104">
+        <v>0</v>
+      </c>
+      <c r="P104" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q104">
         <v>118</v>
-      </c>
-      <c r="K104">
-        <v>0.1067615658362989</v>
-      </c>
-      <c r="L104">
-        <v>30</v>
-      </c>
-      <c r="M104">
-        <v>30</v>
-      </c>
-      <c r="N104">
-        <v>1</v>
-      </c>
-      <c r="O104">
-        <v>0</v>
-      </c>
-      <c r="P104" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q104">
-        <v>251</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K105">
+        <v>0.1374133949191686</v>
+      </c>
+      <c r="L105">
         <v>119</v>
       </c>
-      <c r="K105">
-        <v>0.0975609756097561</v>
-      </c>
-      <c r="L105">
-        <v>16</v>
-      </c>
       <c r="M105">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="N105">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="O105">
-        <v>0.11</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P105" t="b">
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>148</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K106">
-        <v>0.09565217391304348</v>
+        <v>0.1313131313131313</v>
       </c>
       <c r="L106">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M106">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3778,73 +3694,73 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>208</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K107">
-        <v>0.08928571428571429</v>
+        <v>0.1295369211514393</v>
       </c>
       <c r="L107">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="M107">
-        <v>21</v>
+        <v>419</v>
       </c>
       <c r="N107">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="O107">
-        <v>0.05000000000000004</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>204</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K108">
-        <v>0.08888888888888889</v>
+        <v>0.125</v>
       </c>
       <c r="L108">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M108">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N108">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O108">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P108" t="b">
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>205</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K109">
-        <v>0.08169934640522876</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M109">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N109">
         <v>1</v>
@@ -3856,47 +3772,47 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>281</v>
+        <v>144</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K110">
-        <v>0.07262569832402235</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L110">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="M110">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="N110">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O110">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q110">
-        <v>332</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K111">
-        <v>0.07011070110701106</v>
+        <v>0.1102362204724409</v>
       </c>
       <c r="L111">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="M111">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="N111">
         <v>0.93</v>
@@ -3908,33 +3824,371 @@
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>504</v>
+        <v>113</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K112">
+        <v>0.1046511627906977</v>
+      </c>
+      <c r="L112">
+        <v>18</v>
+      </c>
+      <c r="M112">
+        <v>18</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112">
+        <v>0</v>
+      </c>
+      <c r="P112" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q112">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="113" spans="10:17">
+      <c r="J113" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="K113">
+        <v>0.103202846975089</v>
+      </c>
+      <c r="L113">
+        <v>29</v>
+      </c>
+      <c r="M113">
+        <v>29</v>
+      </c>
+      <c r="N113">
+        <v>1</v>
+      </c>
+      <c r="O113">
+        <v>0</v>
+      </c>
+      <c r="P113" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q113">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="114" spans="10:17">
+      <c r="J114" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="K114">
+        <v>0.1015625</v>
+      </c>
+      <c r="L114">
+        <v>13</v>
+      </c>
+      <c r="M114">
+        <v>13</v>
+      </c>
+      <c r="N114">
+        <v>1</v>
+      </c>
+      <c r="O114">
+        <v>0</v>
+      </c>
+      <c r="P114" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q114">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="10:17">
+      <c r="J115" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K115">
+        <v>0.09905254091300603</v>
+      </c>
+      <c r="L115">
+        <v>115</v>
+      </c>
+      <c r="M115">
+        <v>115</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115">
+        <v>0</v>
+      </c>
+      <c r="P115" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q115">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="116" spans="10:17">
+      <c r="J116" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="K116">
+        <v>0.09777777777777778</v>
+      </c>
+      <c r="L116">
+        <v>22</v>
+      </c>
+      <c r="M116">
+        <v>22</v>
+      </c>
+      <c r="N116">
+        <v>1</v>
+      </c>
+      <c r="O116">
+        <v>0</v>
+      </c>
+      <c r="P116" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q116">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="117" spans="10:17">
+      <c r="J117" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="K117">
+        <v>0.09606986899563319</v>
+      </c>
+      <c r="L117">
+        <v>22</v>
+      </c>
+      <c r="M117">
+        <v>23</v>
+      </c>
+      <c r="N117">
+        <v>0.96</v>
+      </c>
+      <c r="O117">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P117" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q117">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="118" spans="10:17">
+      <c r="J118" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="K118">
+        <v>0.09395973154362416</v>
+      </c>
+      <c r="L118">
+        <v>14</v>
+      </c>
+      <c r="M118">
         <v>15</v>
       </c>
-      <c r="K112">
-        <v>0.04821802935010482</v>
-      </c>
-      <c r="L112">
-        <v>46</v>
-      </c>
-      <c r="M112">
-        <v>60</v>
-      </c>
-      <c r="N112">
-        <v>0.77</v>
-      </c>
-      <c r="O112">
-        <v>0.23</v>
-      </c>
-      <c r="P112" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q112">
-        <v>908</v>
+      <c r="N118">
+        <v>0.93</v>
+      </c>
+      <c r="O118">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P118" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q118">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="119" spans="10:17">
+      <c r="J119" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K119">
+        <v>0.09292035398230089</v>
+      </c>
+      <c r="L119">
+        <v>21</v>
+      </c>
+      <c r="M119">
+        <v>22</v>
+      </c>
+      <c r="N119">
+        <v>0.95</v>
+      </c>
+      <c r="O119">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P119" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q119">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="10:17">
+      <c r="J120" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="K120">
+        <v>0.08611111111111111</v>
+      </c>
+      <c r="L120">
+        <v>31</v>
+      </c>
+      <c r="M120">
+        <v>31</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120">
+        <v>0</v>
+      </c>
+      <c r="P120" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q120">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="121" spans="10:17">
+      <c r="J121" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K121">
+        <v>0.08187134502923976</v>
+      </c>
+      <c r="L121">
+        <v>14</v>
+      </c>
+      <c r="M121">
+        <v>14</v>
+      </c>
+      <c r="N121">
+        <v>1</v>
+      </c>
+      <c r="O121">
+        <v>0</v>
+      </c>
+      <c r="P121" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q121">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="K122">
+        <v>0.08118081180811808</v>
+      </c>
+      <c r="L122">
+        <v>44</v>
+      </c>
+      <c r="M122">
+        <v>47</v>
+      </c>
+      <c r="N122">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O122">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="123" spans="10:17">
+      <c r="J123" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="K123">
+        <v>0.07894736842105263</v>
+      </c>
+      <c r="L123">
+        <v>24</v>
+      </c>
+      <c r="M123">
+        <v>26</v>
+      </c>
+      <c r="N123">
+        <v>0.92</v>
+      </c>
+      <c r="O123">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P123" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q123">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="10:17">
+      <c r="J124" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="K124">
+        <v>0.06308169596690796</v>
+      </c>
+      <c r="L124">
+        <v>61</v>
+      </c>
+      <c r="M124">
+        <v>62</v>
+      </c>
+      <c r="N124">
+        <v>0.98</v>
+      </c>
+      <c r="O124">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P124" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q124">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="125" spans="10:17">
+      <c r="J125" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K125">
+        <v>0.04333333333333333</v>
+      </c>
+      <c r="L125">
+        <v>13</v>
+      </c>
+      <c r="M125">
+        <v>13</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125">
+        <v>0</v>
+      </c>
+      <c r="P125" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q125">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
